--- a/Artifact Experiment/Daisuke 25-7-18/2018-07-25 16.28.01 PRESENTATION DAISUKE RIGHT HAND MOVING/movementAcceleration.xlsx
+++ b/Artifact Experiment/Daisuke 25-7-18/2018-07-25 16.28.01 PRESENTATION DAISUKE RIGHT HAND MOVING/movementAcceleration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\TPS 2A\Stage 2A\TNO\cleaning signal\stimuli\Daisuke 25-7-18\2018-07-25 16.28.01 PRESENTATION DAISUKE RIGHT HAND MOVING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36B31F4-0561-4723-9B68-08C8D7F43201}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE35D14-676F-44B6-AAB5-1F003115A39D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{0C148DEC-170E-4CB5-B44E-D8514392C585}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{7EA80890-C5CF-4FDD-9961-9E642DED14F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31DBF0F-9E91-4685-86F8-91816F809737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A77DE50-FB5D-4D80-82DC-88910528BBD5}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
